--- a/week 6/هفتگی/هفتگی.xlsx
+++ b/week 6/هفتگی/هفتگی.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">نام </t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>رتبه</t>
+  </si>
+  <si>
+    <t>عربی</t>
   </si>
 </sst>
 </file>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,7 +554,7 @@
     <col min="4" max="4" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -574,146 +577,240 @@
         <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <f>RANK(I2,I$2:I$42)</f>
-        <v>1</v>
+        <f>RANK(J2,J$2:J$42)</f>
+        <v>31</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="C2" s="3">
+        <v>1001</v>
+      </c>
+      <c r="D2" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>63.333333333333329</v>
+      </c>
+      <c r="G2" s="4">
+        <v>40</v>
+      </c>
       <c r="H2" s="4"/>
-      <c r="I2" s="2">
-        <f>SUM(D2:H2) / 5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I2" s="4">
+        <v>-3.3333333333333335</v>
+      </c>
+      <c r="J2" s="2">
+        <f>SUM(D2:I2) / 5</f>
+        <v>34.666666666666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A42" si="0">RANK(I3,I$2:I$42)</f>
-        <v>1</v>
+        <f t="shared" ref="A3:A42" si="0">RANK(J3,J$2:J$42)</f>
+        <v>30</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="C3" s="3">
+        <v>1002</v>
+      </c>
+      <c r="D3" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="E3" s="4">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>63.333333333333329</v>
+      </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="2">
-        <f>SUM(D3:H3) / 5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <f>SUM(D3:I3) / 5</f>
+        <v>36.666666666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="C4" s="3">
+        <v>1003</v>
+      </c>
+      <c r="D4" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="E4" s="4">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="G4" s="4">
+        <v>86.666666666666671</v>
+      </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="2">
-        <f>SUM(D4:H4) / 5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I4" s="4">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <f>SUM(D4:I4) / 5</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="C5" s="3">
+        <v>1004</v>
+      </c>
+      <c r="D5" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="E5" s="4">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="F5" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="G5" s="4">
+        <v>60</v>
+      </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="2">
-        <f t="shared" ref="I5:I42" si="1">SUM(D5:H5) / 5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="4">
+        <v>36.666666666666664</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" ref="J5:J42" si="1">SUM(D5:I5) / 5</f>
+        <v>55.333333333333336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="C6" s="3">
+        <v>1005</v>
+      </c>
+      <c r="D6" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="E6" s="4">
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F6" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="G6" s="4">
+        <v>86.666666666666671</v>
+      </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="4">
+        <v>-3.3333333333333335</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>58.666666666666671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="3">
+        <v>1006</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100</v>
+      </c>
+      <c r="E7" s="4">
+        <v>63.333333333333329</v>
+      </c>
+      <c r="F7" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="G7" s="4">
+        <v>73.333333333333329</v>
+      </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="4">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>68.666666666666657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="C8" s="3">
+        <v>1007</v>
+      </c>
+      <c r="D8" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="E8" s="4">
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F8" s="4">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="G8" s="4">
+        <v>46.666666666666664</v>
+      </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" s="4">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>50.666666666666664</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -721,642 +818,1084 @@
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="C9" s="3">
+        <v>1008</v>
+      </c>
+      <c r="D9" s="4">
+        <v>100</v>
+      </c>
+      <c r="E9" s="4">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4">
+        <v>100</v>
+      </c>
+      <c r="G9" s="4">
+        <v>100</v>
+      </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="4">
+        <v>100</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="C10" s="3">
+        <v>1009</v>
+      </c>
+      <c r="D10" s="4">
+        <v>100</v>
+      </c>
+      <c r="E10" s="4">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="F10" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="G10" s="4">
+        <v>86.666666666666671</v>
+      </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="4">
+        <v>20</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>65.333333333333343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="C11" s="3">
+        <v>1010</v>
+      </c>
+      <c r="D11" s="4">
+        <v>80</v>
+      </c>
+      <c r="E11" s="4">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="F11" s="4">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="G11" s="4">
+        <v>100</v>
+      </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I11" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="C12" s="3">
+        <v>1011</v>
+      </c>
+      <c r="D12" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="E12" s="4">
+        <v>63.333333333333329</v>
+      </c>
+      <c r="F12" s="4">
+        <v>63.333333333333329</v>
+      </c>
+      <c r="G12" s="4">
+        <v>40</v>
+      </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I12" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="C13" s="3">
+        <v>1012</v>
+      </c>
+      <c r="D13" s="4">
+        <v>100</v>
+      </c>
+      <c r="E13" s="4">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>86.666666666666671</v>
+      </c>
       <c r="H13" s="4"/>
-      <c r="I13" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="1"/>
+        <v>48.666666666666664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="C14" s="3">
+        <v>1013</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="F14" s="4">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="G14" s="4">
+        <v>86.666666666666671</v>
+      </c>
       <c r="H14" s="4"/>
-      <c r="I14" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="1"/>
+        <v>34.666666666666664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="C15" s="3">
+        <v>1014</v>
+      </c>
+      <c r="D15" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="E15" s="4">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="F15" s="4">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="G15" s="4">
+        <v>73.333333333333329</v>
+      </c>
       <c r="H15" s="4"/>
-      <c r="I15" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="4">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="1"/>
+        <v>51.333333333333329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="C16" s="3">
+        <v>1015</v>
+      </c>
+      <c r="D16" s="4">
+        <v>100</v>
+      </c>
+      <c r="E16" s="4">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="F16" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="G16" s="4">
+        <v>100</v>
+      </c>
       <c r="H16" s="4"/>
-      <c r="I16" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I16" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="C17" s="3">
+        <v>1016</v>
+      </c>
+      <c r="D17" s="4">
+        <v>100</v>
+      </c>
+      <c r="E17" s="4">
+        <v>40</v>
+      </c>
+      <c r="F17" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="G17" s="4">
+        <v>50</v>
+      </c>
       <c r="H17" s="4"/>
-      <c r="I17" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="1"/>
+        <v>52.666666666666664</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="C18" s="3">
+        <v>1017</v>
+      </c>
+      <c r="D18" s="4">
+        <v>60</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="F18" s="4">
+        <v>60</v>
+      </c>
+      <c r="G18" s="4">
+        <v>60</v>
+      </c>
       <c r="H18" s="4"/>
-      <c r="I18" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I18" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="3">
+        <v>1018</v>
+      </c>
+      <c r="D19" s="4">
+        <v>100</v>
+      </c>
+      <c r="E19" s="4">
+        <v>60</v>
+      </c>
+      <c r="F19" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="G19" s="4">
+        <v>100</v>
+      </c>
       <c r="H19" s="4"/>
-      <c r="I19" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="4">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="1"/>
+        <v>70.666666666666671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="C20" s="3">
+        <v>1019</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="F20" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="G20" s="4">
+        <v>43.333333333333336</v>
+      </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="1"/>
+        <v>32.666666666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="C21" s="3">
+        <v>1020</v>
+      </c>
+      <c r="D21" s="4">
+        <v>100</v>
+      </c>
+      <c r="E21" s="4">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="F21" s="4">
+        <v>100</v>
+      </c>
+      <c r="G21" s="4">
+        <v>86.666666666666671</v>
+      </c>
       <c r="H21" s="4"/>
-      <c r="I21" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I21" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
+        <v>85.333333333333343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="C22" s="3">
+        <v>1021</v>
+      </c>
+      <c r="D22" s="4">
+        <v>80</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <v>23.333333333333332</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
       <c r="H22" s="4"/>
-      <c r="I22" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I22" s="4">
+        <v>-10</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="1"/>
+        <v>18.666666666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="C23" s="3">
+        <v>1022</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>40</v>
+      </c>
+      <c r="F23" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="G23" s="4">
+        <v>80</v>
+      </c>
       <c r="H23" s="4"/>
-      <c r="I23" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I23" s="4">
+        <v>60</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="1"/>
+        <v>50.666666666666664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="C24" s="3">
+        <v>1023</v>
+      </c>
+      <c r="D24" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="E24" s="4">
+        <v>20</v>
+      </c>
+      <c r="F24" s="4">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>73.333333333333329</v>
+      </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I24" s="4">
+        <v>36.666666666666664</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="1"/>
+        <v>41.333333333333329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="C25" s="3">
+        <v>1024</v>
+      </c>
+      <c r="D25" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="E25" s="4">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F25" s="4">
+        <v>0</v>
+      </c>
+      <c r="G25" s="4">
+        <v>46.666666666666664</v>
+      </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I25" s="4">
+        <v>30</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="1"/>
+        <v>31.333333333333332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="C26" s="3">
+        <v>1025</v>
+      </c>
+      <c r="D26" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="E26" s="4">
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F26" s="4">
+        <v>63.333333333333329</v>
+      </c>
+      <c r="G26" s="4">
+        <v>86.666666666666671</v>
+      </c>
       <c r="H26" s="4"/>
-      <c r="I26" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I26" s="4">
+        <v>50</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="1"/>
+        <v>64.666666666666671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="C27" s="3">
+        <v>1026</v>
+      </c>
+      <c r="D27" s="4">
+        <v>100</v>
+      </c>
+      <c r="E27" s="4">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="F27" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="G27" s="4">
+        <v>100</v>
+      </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I27" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="C28" s="3">
+        <v>1027</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4">
+        <v>0</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0</v>
+      </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I28" s="4">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="C29" s="3">
+        <v>1028</v>
+      </c>
+      <c r="D29" s="4">
+        <v>100</v>
+      </c>
+      <c r="E29" s="4">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="F29" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="G29" s="4">
+        <v>100</v>
+      </c>
       <c r="H29" s="4"/>
-      <c r="I29" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I29" s="4">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="1"/>
+        <v>68.666666666666657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="C30" s="3">
+        <v>1029</v>
+      </c>
+      <c r="D30" s="4">
+        <v>76.666666666666671</v>
+      </c>
+      <c r="E30" s="4">
+        <v>30</v>
+      </c>
+      <c r="F30" s="4">
+        <v>63.333333333333329</v>
+      </c>
+      <c r="G30" s="4">
+        <v>80</v>
+      </c>
       <c r="H30" s="4"/>
-      <c r="I30" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I30" s="4">
+        <v>-26.666666666666668</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="1"/>
+        <v>44.666666666666671</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="C31" s="3">
+        <v>1030</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F31" s="4">
+        <v>60</v>
+      </c>
+      <c r="G31" s="4">
+        <v>36.666666666666664</v>
+      </c>
       <c r="H31" s="4"/>
-      <c r="I31" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I31" s="4">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="1"/>
+        <v>31.999999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="C32" s="3">
+        <v>1031</v>
+      </c>
+      <c r="D32" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="E32" s="4">
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F32" s="4">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="G32" s="4">
+        <v>36.666666666666664</v>
+      </c>
       <c r="H32" s="4"/>
-      <c r="I32" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I32" s="4">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="1"/>
+        <v>37.333333333333329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
+      <c r="C33" s="3">
+        <v>1032</v>
+      </c>
+      <c r="D33" s="4">
+        <v>100</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4">
+        <v>73.333333333333329</v>
+      </c>
       <c r="H33" s="4"/>
-      <c r="I33" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I33" s="4">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="1"/>
+        <v>37.999999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
+      <c r="C34" s="3">
+        <v>1033</v>
+      </c>
+      <c r="D34" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="E34" s="4">
+        <v>60</v>
+      </c>
+      <c r="F34" s="4">
+        <v>63.333333333333329</v>
+      </c>
+      <c r="G34" s="4">
+        <v>60</v>
+      </c>
       <c r="H34" s="4"/>
-      <c r="I34" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I34" s="4">
+        <v>30</v>
+      </c>
+      <c r="J34" s="2">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="C35" s="3">
+        <v>1034</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="G35" s="4">
+        <v>73.333333333333329</v>
+      </c>
       <c r="H35" s="4"/>
-      <c r="I35" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I35" s="4">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <f t="shared" si="1"/>
+        <v>23.333333333333332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="C36" s="3">
+        <v>1035</v>
+      </c>
+      <c r="D36" s="4">
+        <v>63.333333333333329</v>
+      </c>
+      <c r="E36" s="4">
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F36" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="G36" s="4">
+        <v>63.333333333333329</v>
+      </c>
       <c r="H36" s="4"/>
-      <c r="I36" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I36" s="4">
+        <v>30</v>
+      </c>
+      <c r="J36" s="2">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="C37" s="3">
+        <v>1036</v>
+      </c>
+      <c r="D37" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="E37" s="4">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="F37" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="G37" s="4">
+        <v>6.666666666666667</v>
+      </c>
       <c r="H37" s="4"/>
-      <c r="I37" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I37" s="4">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="1"/>
+        <v>39.333333333333329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="C38" s="3">
+        <v>1037</v>
+      </c>
+      <c r="D38" s="4">
+        <v>90</v>
+      </c>
+      <c r="E38" s="4">
+        <v>43.333333333333336</v>
+      </c>
+      <c r="F38" s="4">
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G38" s="4">
+        <v>30</v>
+      </c>
       <c r="H38" s="4"/>
-      <c r="I38" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I38" s="4">
+        <v>-13.333333333333334</v>
+      </c>
+      <c r="J38" s="2">
+        <f t="shared" si="1"/>
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="C39" s="3">
+        <v>1038</v>
+      </c>
+      <c r="D39" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="E39" s="4">
+        <v>20</v>
+      </c>
+      <c r="F39" s="4">
+        <v>60</v>
+      </c>
+      <c r="G39" s="4">
+        <v>60</v>
+      </c>
       <c r="H39" s="4"/>
-      <c r="I39" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I39" s="4">
+        <v>33.333333333333329</v>
+      </c>
+      <c r="J39" s="2">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="C40" s="3">
+        <v>1039</v>
+      </c>
+      <c r="D40" s="4">
+        <v>100</v>
+      </c>
+      <c r="E40" s="4">
+        <v>50</v>
+      </c>
+      <c r="F40" s="4">
+        <v>56.666666666666664</v>
+      </c>
+      <c r="G40" s="4">
+        <v>100</v>
+      </c>
       <c r="H40" s="4"/>
-      <c r="I40" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I40" s="4">
+        <v>70</v>
+      </c>
+      <c r="J40" s="2">
+        <f t="shared" si="1"/>
+        <v>75.333333333333329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="C41" s="3">
+        <v>1040</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>53.333333333333336</v>
+      </c>
+      <c r="G41" s="4">
+        <v>46.666666666666664</v>
+      </c>
       <c r="H41" s="4"/>
-      <c r="I41" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I41" s="4">
+        <v>20</v>
+      </c>
+      <c r="J41" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
+      <c r="C42" s="3">
+        <v>1041</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>20</v>
+      </c>
+      <c r="F42" s="4">
+        <v>36.666666666666664</v>
+      </c>
+      <c r="G42" s="4">
+        <v>63.333333333333329</v>
+      </c>
       <c r="H42" s="4"/>
-      <c r="I42" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="I42" s="4">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/week 6/هفتگی/هفتگی.xlsx
+++ b/week 6/هفتگی/هفتگی.xlsx
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -653,7 +653,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
@@ -685,7 +685,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
@@ -717,7 +717,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -749,7 +749,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
@@ -845,7 +845,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
@@ -877,7 +877,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
@@ -909,7 +909,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
@@ -1069,7 +1069,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
@@ -1091,11 +1091,11 @@
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="1"/>
-        <v>52.666666666666664</v>
+        <v>72.666666666666657</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1133,7 +1133,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>18</v>
@@ -1357,7 +1357,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>25</v>
@@ -1453,7 +1453,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>28</v>
@@ -1613,7 +1613,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>33</v>
@@ -1677,7 +1677,7 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>35</v>

--- a/week 6/هفتگی/هفتگی.xlsx
+++ b/week 6/هفتگی/هفتگی.xlsx
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -589,673 +589,715 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f>RANK(J2,J$2:J$42)</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="D2" s="4">
-        <v>73.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="E2" s="4">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4">
-        <v>63.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="G2" s="4">
-        <v>40</v>
-      </c>
-      <c r="H2" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="H2" s="4">
+        <v>100</v>
+      </c>
       <c r="I2" s="4">
-        <v>-3.3333333333333335</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2">
-        <f>SUM(D2:I2) / 5</f>
-        <v>34.666666666666664</v>
+        <f>SUM(D2:I2) / 6</f>
+        <v>93.333333333333329</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A42" si="0">RANK(J3,J$2:J$42)</f>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3">
-        <v>1002</v>
+        <v>1026</v>
       </c>
       <c r="D3" s="4">
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="E3" s="4">
-        <v>33.333333333333329</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="G3" s="4">
-        <v>63.333333333333329</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="H3" s="4">
+        <v>100</v>
+      </c>
       <c r="I3" s="4">
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="J3" s="2">
-        <f>SUM(D3:I3) / 5</f>
-        <v>36.666666666666664</v>
+        <f t="shared" ref="J3:J42" si="1">SUM(D3:I3) / 6</f>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3">
-        <v>1003</v>
+        <v>1039</v>
       </c>
       <c r="D4" s="4">
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="E4" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F4" s="4">
-        <v>66.666666666666657</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="G4" s="4">
-        <v>86.666666666666671</v>
-      </c>
-      <c r="H4" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="H4" s="4">
+        <v>100</v>
+      </c>
       <c r="I4" s="4">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2">
-        <f>SUM(D4:I4) / 5</f>
-        <v>58</v>
+        <f t="shared" si="1"/>
+        <v>79.444444444444443</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>1004</v>
+        <v>1020</v>
       </c>
       <c r="D5" s="4">
-        <v>73.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="E5" s="4">
-        <v>33.333333333333329</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="F5" s="4">
-        <v>73.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="G5" s="4">
-        <v>60</v>
-      </c>
-      <c r="H5" s="4"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="H5" s="4">
+        <v>46.666666666666664</v>
+      </c>
       <c r="I5" s="4">
-        <v>36.666666666666664</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" ref="J5:J42" si="1">SUM(D5:I5) / 5</f>
-        <v>55.333333333333336</v>
+        <f t="shared" si="1"/>
+        <v>78.8888888888889</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3">
-        <v>1005</v>
+        <v>1018</v>
       </c>
       <c r="D6" s="4">
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="E6" s="4">
-        <v>36.666666666666664</v>
+        <v>60</v>
       </c>
       <c r="F6" s="4">
         <v>86.666666666666671</v>
       </c>
       <c r="G6" s="4">
-        <v>86.666666666666671</v>
-      </c>
-      <c r="H6" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="H6" s="4">
+        <v>100</v>
+      </c>
       <c r="I6" s="4">
-        <v>-3.3333333333333335</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="J6" s="2">
         <f t="shared" si="1"/>
-        <v>58.666666666666671</v>
+        <v>75.555555555555557</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3">
-        <v>1006</v>
+        <v>1016</v>
       </c>
       <c r="D7" s="4">
         <v>100</v>
       </c>
       <c r="E7" s="4">
-        <v>63.333333333333329</v>
+        <v>40</v>
       </c>
       <c r="F7" s="4">
-        <v>76.666666666666671</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="G7" s="4">
-        <v>73.333333333333329</v>
-      </c>
-      <c r="H7" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="H7" s="4">
+        <v>86.666666666666671</v>
+      </c>
       <c r="I7" s="4">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J7" s="2">
         <f t="shared" si="1"/>
-        <v>68.666666666666657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="D8" s="4">
         <v>86.666666666666671</v>
       </c>
       <c r="E8" s="4">
-        <v>36.666666666666664</v>
+        <v>63.333333333333329</v>
       </c>
       <c r="F8" s="4">
-        <v>66.666666666666657</v>
+        <v>63.333333333333329</v>
       </c>
       <c r="G8" s="4">
-        <v>46.666666666666664</v>
-      </c>
-      <c r="H8" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="H8" s="4">
+        <v>100</v>
+      </c>
       <c r="I8" s="4">
-        <v>16.666666666666664</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="J8" s="2">
         <f t="shared" si="1"/>
-        <v>50.666666666666664</v>
+        <v>73.333333333333329</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="D9" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E9" s="4">
-        <v>60</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="F9" s="4">
-        <v>100</v>
+        <v>46.666666666666664</v>
       </c>
       <c r="G9" s="4">
         <v>100</v>
       </c>
-      <c r="H9" s="4"/>
+      <c r="H9" s="4">
+        <v>100</v>
+      </c>
       <c r="I9" s="4">
-        <v>100</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" si="1"/>
-        <v>92</v>
+        <v>71.666666666666671</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3">
-        <v>1009</v>
+        <v>1025</v>
       </c>
       <c r="D10" s="4">
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E10" s="4">
-        <v>43.333333333333336</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="F10" s="4">
-        <v>76.666666666666671</v>
+        <v>63.333333333333329</v>
       </c>
       <c r="G10" s="4">
         <v>86.666666666666671</v>
       </c>
-      <c r="H10" s="4"/>
+      <c r="H10" s="4">
+        <v>100</v>
+      </c>
       <c r="I10" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="1"/>
-        <v>65.333333333333343</v>
+        <v>70.555555555555557</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="D11" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E11" s="4">
-        <v>26.666666666666668</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="F11" s="4">
-        <v>46.666666666666664</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="G11" s="4">
         <v>100</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
       <c r="I11" s="4">
         <v>76.666666666666671</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="1"/>
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D12" s="4">
-        <v>86.666666666666671</v>
+        <v>100</v>
       </c>
       <c r="E12" s="4">
         <v>63.333333333333329</v>
       </c>
       <c r="F12" s="4">
-        <v>63.333333333333329</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="G12" s="4">
-        <v>40</v>
-      </c>
-      <c r="H12" s="4"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="H12" s="4">
+        <v>70</v>
+      </c>
       <c r="I12" s="4">
-        <v>86.666666666666671</v>
+        <v>30</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="1"/>
-        <v>68</v>
+        <v>68.888888888888886</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="D13" s="4">
         <v>100</v>
       </c>
       <c r="E13" s="4">
-        <v>56.666666666666664</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="G13" s="4">
         <v>86.666666666666671</v>
       </c>
-      <c r="H13" s="4"/>
+      <c r="H13" s="4">
+        <v>76.666666666666671</v>
+      </c>
       <c r="I13" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J13" s="2">
         <f t="shared" si="1"/>
-        <v>48.666666666666664</v>
+        <v>67.222222222222229</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3">
-        <v>1013</v>
+        <v>1028</v>
       </c>
       <c r="D14" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="4">
-        <v>53.333333333333336</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="F14" s="4">
-        <v>33.333333333333329</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="G14" s="4">
-        <v>86.666666666666671</v>
-      </c>
-      <c r="H14" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="H14" s="4">
+        <v>56.666666666666664</v>
+      </c>
       <c r="I14" s="4">
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="J14" s="2">
         <f t="shared" si="1"/>
-        <v>34.666666666666664</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C15" s="3">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="D15" s="4">
-        <v>73.333333333333329</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E15" s="4">
-        <v>33.333333333333329</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="F15" s="4">
-        <v>46.666666666666664</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="G15" s="4">
-        <v>73.333333333333329</v>
-      </c>
-      <c r="H15" s="4"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="H15" s="4">
+        <v>86.666666666666671</v>
+      </c>
       <c r="I15" s="4">
-        <v>30</v>
+        <v>-3.3333333333333335</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="1"/>
-        <v>51.333333333333329</v>
+        <v>63.333333333333343</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="C16" s="3">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="D16" s="4">
-        <v>100</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E16" s="4">
-        <v>56.666666666666664</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="F16" s="4">
-        <v>86.666666666666671</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="G16" s="4">
-        <v>100</v>
-      </c>
-      <c r="H16" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="H16" s="4">
+        <v>80</v>
+      </c>
       <c r="I16" s="4">
-        <v>76.666666666666671</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="J16" s="2">
         <f t="shared" si="1"/>
-        <v>84</v>
+        <v>59.44444444444445</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="D17" s="4">
-        <v>100</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E17" s="4">
         <v>40</v>
       </c>
       <c r="F17" s="4">
-        <v>73.333333333333329</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="G17" s="4">
-        <v>50</v>
-      </c>
-      <c r="H17" s="4"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="H17" s="4">
+        <v>66.666666666666657</v>
+      </c>
       <c r="I17" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J17" s="2">
         <f t="shared" si="1"/>
-        <v>72.666666666666657</v>
+        <v>59.444444444444436</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3">
-        <v>1017</v>
+        <v>1007</v>
       </c>
       <c r="D18" s="4">
-        <v>60</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E18" s="4">
-        <v>3.3333333333333335</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="F18" s="4">
-        <v>60</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="G18" s="4">
-        <v>60</v>
-      </c>
-      <c r="H18" s="4"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H18" s="4">
+        <v>100</v>
+      </c>
       <c r="I18" s="4">
-        <v>76.666666666666671</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="J18" s="2">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>58.888888888888886</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="D19" s="4">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E19" s="4">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="F19" s="4">
         <v>60</v>
       </c>
-      <c r="F19" s="4">
-        <v>86.666666666666671</v>
-      </c>
       <c r="G19" s="4">
-        <v>100</v>
-      </c>
-      <c r="H19" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="H19" s="4">
+        <v>80</v>
+      </c>
       <c r="I19" s="4">
-        <v>6.666666666666667</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" si="1"/>
-        <v>70.666666666666671</v>
+        <v>56.666666666666679</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
       </c>
       <c r="E20" s="4">
-        <v>43.333333333333336</v>
+        <v>40</v>
       </c>
       <c r="F20" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="G20" s="4">
+        <v>80</v>
+      </c>
+      <c r="H20" s="4">
         <v>76.666666666666671</v>
       </c>
-      <c r="G20" s="4">
-        <v>43.333333333333336</v>
-      </c>
-      <c r="H20" s="4"/>
       <c r="I20" s="4">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" si="1"/>
-        <v>32.666666666666671</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3">
-        <v>1020</v>
+        <v>1035</v>
       </c>
       <c r="D21" s="4">
-        <v>100</v>
+        <v>63.333333333333329</v>
       </c>
       <c r="E21" s="4">
+        <v>36.666666666666664</v>
+      </c>
+      <c r="F21" s="4">
+        <v>86.666666666666671</v>
+      </c>
+      <c r="G21" s="4">
+        <v>63.333333333333329</v>
+      </c>
+      <c r="H21" s="4">
+        <v>40</v>
+      </c>
+      <c r="I21" s="4">
+        <v>30</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="1"/>
         <v>53.333333333333336</v>
-      </c>
-      <c r="F21" s="4">
-        <v>100</v>
-      </c>
-      <c r="G21" s="4">
-        <v>86.666666666666671</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
-        <v>86.666666666666671</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="1"/>
-        <v>85.333333333333343</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C22" s="3">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="D22" s="4">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E22" s="4">
-        <v>0</v>
+        <v>56.666666666666664</v>
       </c>
       <c r="F22" s="4">
-        <v>23.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="G22" s="4">
-        <v>0</v>
-      </c>
-      <c r="H22" s="4"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="H22" s="4">
+        <v>73.333333333333329</v>
+      </c>
       <c r="I22" s="4">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" si="1"/>
-        <v>18.666666666666664</v>
+        <v>52.777777777777771</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1264,394 +1306,418 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="D23" s="4">
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E23" s="4">
-        <v>40</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="F23" s="4">
+        <v>46.666666666666664</v>
+      </c>
+      <c r="G23" s="4">
         <v>73.333333333333329</v>
       </c>
-      <c r="G23" s="4">
-        <v>80</v>
-      </c>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4">
+        <v>53.333333333333336</v>
+      </c>
       <c r="I23" s="4">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="J23" s="2">
         <f t="shared" si="1"/>
-        <v>50.666666666666664</v>
+        <v>51.666666666666657</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C24" s="3">
-        <v>1023</v>
+        <v>1033</v>
       </c>
       <c r="D24" s="4">
-        <v>76.666666666666671</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E24" s="4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>63.333333333333329</v>
       </c>
       <c r="G24" s="4">
-        <v>73.333333333333329</v>
-      </c>
-      <c r="H24" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
       <c r="I24" s="4">
-        <v>36.666666666666664</v>
+        <v>30</v>
       </c>
       <c r="J24" s="2">
         <f t="shared" si="1"/>
-        <v>41.333333333333329</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3">
-        <v>1024</v>
+        <v>1038</v>
       </c>
       <c r="D25" s="4">
-        <v>73.333333333333329</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E25" s="4">
-        <v>6.666666666666667</v>
+        <v>20</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G25" s="4">
-        <v>46.666666666666664</v>
-      </c>
-      <c r="H25" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="H25" s="4">
+        <v>33.333333333333329</v>
+      </c>
       <c r="I25" s="4">
-        <v>30</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="J25" s="2">
         <f t="shared" si="1"/>
-        <v>31.333333333333332</v>
+        <v>48.888888888888886</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="C26" s="3">
-        <v>1025</v>
+        <v>1002</v>
       </c>
       <c r="D26" s="4">
         <v>86.666666666666671</v>
       </c>
       <c r="E26" s="4">
-        <v>36.666666666666664</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
         <v>63.333333333333329</v>
       </c>
-      <c r="G26" s="4">
-        <v>86.666666666666671</v>
-      </c>
-      <c r="H26" s="4"/>
+      <c r="H26" s="4">
+        <v>86.666666666666671</v>
+      </c>
       <c r="I26" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2">
         <f t="shared" si="1"/>
-        <v>64.666666666666671</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C27" s="3">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="D27" s="4">
-        <v>100</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="E27" s="4">
-        <v>66.666666666666657</v>
+        <v>20</v>
       </c>
       <c r="F27" s="4">
-        <v>86.666666666666671</v>
+        <v>0</v>
       </c>
       <c r="G27" s="4">
-        <v>100</v>
-      </c>
-      <c r="H27" s="4"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="H27" s="4">
+        <v>60</v>
+      </c>
       <c r="I27" s="4">
-        <v>86.666666666666671</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" si="1"/>
-        <v>88</v>
+        <v>44.44444444444445</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C28" s="3">
-        <v>1027</v>
+        <v>1031</v>
       </c>
       <c r="D28" s="4">
-        <v>0</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="E28" s="4">
-        <v>0</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="F28" s="4">
-        <v>0</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="G28" s="4">
-        <v>0</v>
-      </c>
-      <c r="H28" s="4"/>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="H28" s="4">
+        <v>76.666666666666671</v>
+      </c>
       <c r="I28" s="4">
         <v>0</v>
       </c>
       <c r="J28" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>43.888888888888886</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="3">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D29" s="4">
-        <v>100</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="E29" s="4">
-        <v>56.666666666666664</v>
+        <v>30</v>
       </c>
       <c r="F29" s="4">
-        <v>73.333333333333329</v>
+        <v>63.333333333333329</v>
       </c>
       <c r="G29" s="4">
-        <v>100</v>
-      </c>
-      <c r="H29" s="4"/>
+        <v>80</v>
+      </c>
+      <c r="H29" s="4">
+        <v>36.666666666666664</v>
+      </c>
       <c r="I29" s="4">
-        <v>13.333333333333334</v>
+        <v>-26.666666666666668</v>
       </c>
       <c r="J29" s="2">
         <f t="shared" si="1"/>
-        <v>68.666666666666657</v>
+        <v>43.333333333333336</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C30" s="3">
-        <v>1029</v>
+        <v>1001</v>
       </c>
       <c r="D30" s="4">
-        <v>76.666666666666671</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E30" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F30" s="4">
         <v>63.333333333333329</v>
       </c>
       <c r="G30" s="4">
-        <v>80</v>
-      </c>
-      <c r="H30" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="H30" s="4">
+        <v>76.666666666666671</v>
+      </c>
       <c r="I30" s="4">
-        <v>-26.666666666666668</v>
+        <v>-3.3333333333333335</v>
       </c>
       <c r="J30" s="2">
         <f t="shared" si="1"/>
-        <v>44.666666666666671</v>
+        <v>41.666666666666664</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C31" s="3">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="D31" s="4">
-        <v>0</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E31" s="4">
-        <v>36.666666666666664</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="F31" s="4">
-        <v>60</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="G31" s="4">
-        <v>36.666666666666664</v>
-      </c>
-      <c r="H31" s="4"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H31" s="4">
+        <v>46.666666666666664</v>
+      </c>
       <c r="I31" s="4">
         <v>26.666666666666668</v>
       </c>
       <c r="J31" s="2">
         <f t="shared" si="1"/>
-        <v>31.999999999999993</v>
+        <v>40.55555555555555</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C32" s="3">
-        <v>1031</v>
+        <v>1013</v>
       </c>
       <c r="D32" s="4">
-        <v>86.666666666666671</v>
+        <v>0</v>
       </c>
       <c r="E32" s="4">
-        <v>36.666666666666664</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="F32" s="4">
-        <v>26.666666666666668</v>
+        <v>33.333333333333329</v>
       </c>
       <c r="G32" s="4">
-        <v>36.666666666666664</v>
-      </c>
-      <c r="H32" s="4"/>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="H32" s="4">
+        <v>66.666666666666657</v>
+      </c>
       <c r="I32" s="4">
         <v>0</v>
       </c>
       <c r="J32" s="2">
         <f t="shared" si="1"/>
-        <v>37.333333333333329</v>
+        <v>39.999999999999993</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C33" s="3">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="D33" s="4">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E33" s="4">
-        <v>0</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="F33" s="4">
-        <v>0</v>
+        <v>16.666666666666664</v>
       </c>
       <c r="G33" s="4">
-        <v>73.333333333333329</v>
-      </c>
-      <c r="H33" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="H33" s="4">
+        <v>63.333333333333329</v>
+      </c>
       <c r="I33" s="4">
-        <v>16.666666666666664</v>
+        <v>-13.333333333333334</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="1"/>
-        <v>37.999999999999993</v>
+        <v>38.333333333333329</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="D34" s="4">
-        <v>86.666666666666671</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="E34" s="4">
-        <v>60</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F34" s="4">
-        <v>63.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="G34" s="4">
-        <v>60</v>
-      </c>
-      <c r="H34" s="4"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H34" s="4">
+        <v>53.333333333333336</v>
+      </c>
       <c r="I34" s="4">
         <v>30</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C35" s="3">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -1660,245 +1726,264 @@
         <v>0</v>
       </c>
       <c r="F35" s="4">
-        <v>43.333333333333336</v>
+        <v>53.333333333333336</v>
       </c>
       <c r="G35" s="4">
-        <v>73.333333333333329</v>
-      </c>
-      <c r="H35" s="4"/>
+        <v>46.666666666666664</v>
+      </c>
+      <c r="H35" s="4">
+        <v>86.666666666666671</v>
+      </c>
       <c r="I35" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="1"/>
-        <v>23.333333333333332</v>
+        <v>34.44444444444445</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C36" s="3">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="D36" s="4">
-        <v>63.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="E36" s="4">
         <v>36.666666666666664</v>
       </c>
       <c r="F36" s="4">
-        <v>86.666666666666671</v>
+        <v>60</v>
       </c>
       <c r="G36" s="4">
-        <v>63.333333333333329</v>
-      </c>
-      <c r="H36" s="4"/>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="H36" s="4">
+        <v>40</v>
+      </c>
       <c r="I36" s="4">
-        <v>30</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="J36" s="2">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C37" s="3">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="D37" s="4">
-        <v>73.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="E37" s="4">
-        <v>16.666666666666664</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="F37" s="4">
-        <v>73.333333333333329</v>
+        <v>76.666666666666671</v>
       </c>
       <c r="G37" s="4">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="H37" s="4"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="H37" s="4">
+        <v>33.333333333333329</v>
+      </c>
       <c r="I37" s="4">
-        <v>26.666666666666668</v>
+        <v>0</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="1"/>
-        <v>39.333333333333329</v>
+        <v>32.777777777777779</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="D38" s="4">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E38" s="4">
-        <v>43.333333333333336</v>
+        <v>0</v>
       </c>
       <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>73.333333333333329</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
         <v>16.666666666666664</v>
       </c>
-      <c r="G38" s="4">
-        <v>30</v>
-      </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4">
-        <v>-13.333333333333334</v>
-      </c>
       <c r="J38" s="2">
         <f t="shared" si="1"/>
-        <v>33.333333333333329</v>
+        <v>31.666666666666661</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C39" s="3">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="D39" s="4">
-        <v>86.666666666666671</v>
+        <v>0</v>
       </c>
       <c r="E39" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F39" s="4">
-        <v>60</v>
+        <v>43.333333333333336</v>
       </c>
       <c r="G39" s="4">
-        <v>60</v>
-      </c>
-      <c r="H39" s="4"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="H39" s="4">
+        <v>66.666666666666657</v>
+      </c>
       <c r="I39" s="4">
-        <v>33.333333333333329</v>
+        <v>0</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>30.555555555555554</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C40" s="3">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="D40" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E40" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F40" s="4">
-        <v>56.666666666666664</v>
+        <v>36.666666666666664</v>
       </c>
       <c r="G40" s="4">
-        <v>100</v>
-      </c>
-      <c r="H40" s="4"/>
+        <v>63.333333333333329</v>
+      </c>
+      <c r="H40" s="4">
+        <v>43.333333333333336</v>
+      </c>
       <c r="I40" s="4">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="1"/>
-        <v>75.333333333333329</v>
+        <v>27.222222222222225</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C41" s="3">
-        <v>1040</v>
+        <v>1021</v>
       </c>
       <c r="D41" s="4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
       </c>
       <c r="F41" s="4">
-        <v>53.333333333333336</v>
+        <v>23.333333333333332</v>
       </c>
       <c r="G41" s="4">
-        <v>46.666666666666664</v>
-      </c>
-      <c r="H41" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="4">
+        <v>33.333333333333329</v>
+      </c>
       <c r="I41" s="4">
-        <v>20</v>
+        <v>-10</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>21.111111111111111</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C42" s="3">
-        <v>1041</v>
+        <v>1027</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
       </c>
       <c r="E42" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F42" s="4">
-        <v>36.666666666666664</v>
+        <v>0</v>
       </c>
       <c r="G42" s="4">
-        <v>63.333333333333329</v>
-      </c>
-      <c r="H42" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0</v>
+      </c>
       <c r="I42" s="4">
         <v>0</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:J42">
+    <sortCondition descending="1" ref="J2:J42"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
